--- a/lib/OtherData/Wills_etal_2015_Statewide_Geologic_Properties.xlsx
+++ b/lib/OtherData/Wills_etal_2015_Statewide_Geologic_Properties.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/lib/OtherData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_F25DC773A252ABDACC104822D9D8682A5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA570132-2D87-4590-9A74-7745B560A1FE}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="11_F25DC773A252ABDACC104822D9D8682A5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2196F398-8EA9-4DBD-8B62-F9B12F906E02}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>adf</t>
   </si>
@@ -175,7 +175,28 @@
     <t>Cohesion - Median (kPa)</t>
   </si>
   <si>
-    <t>Cohesion - Sigma (kPa)</t>
+    <t>Friction Angle - Min (degrees)</t>
+  </si>
+  <si>
+    <t>Friction Angle - Max (degrees)</t>
+  </si>
+  <si>
+    <t>Cohesion - Min (psf)</t>
+  </si>
+  <si>
+    <t>Cohesion - Max (psf)</t>
+  </si>
+  <si>
+    <t>Cohesion - CoV (%)</t>
+  </si>
+  <si>
+    <t>Friction Angle - CoV (%)</t>
+  </si>
+  <si>
+    <t>Cohesion - Min (kPa)</t>
+  </si>
+  <si>
+    <t>Cohesion - Max (kPa)</t>
   </si>
 </sst>
 </file>
@@ -183,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -216,7 +237,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,20 +518,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="8" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -527,25 +549,46 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -559,10 +602,10 @@
         <v>9999</v>
       </c>
       <c r="E2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>9999</v>
@@ -577,10 +620,31 @@
         <v>9999</v>
       </c>
       <c r="K2">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>9999</v>
+      </c>
+      <c r="N2">
+        <v>9999</v>
+      </c>
+      <c r="O2">
+        <v>9999</v>
+      </c>
+      <c r="P2">
+        <v>9999</v>
+      </c>
+      <c r="Q2">
+        <v>9999</v>
+      </c>
+      <c r="R2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -597,28 +661,50 @@
         <v>9</v>
       </c>
       <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
         <v>329</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>250</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>172</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I19" si="0">F3/20.885434273039</f>
+      <c r="L3">
+        <v>52</v>
+      </c>
+      <c r="M3">
+        <v>125</v>
+      </c>
+      <c r="N3">
+        <v>575</v>
+      </c>
+      <c r="O3" s="1">
+        <f>I3/20.885434273039</f>
         <v>15.752605174444756</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J2:J19" si="1">G3/20.885434273039</f>
+      <c r="P3" s="1">
+        <f>J3/20.885434273039</f>
         <v>11.970064722222459</v>
       </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K2:K19" si="2">H3/20.885434273039</f>
-        <v>8.2354045288890525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1">
+        <f>M3/20.885434273039</f>
+        <v>5.9850323611112293</v>
+      </c>
+      <c r="R3" s="1">
+        <f>N3/20.885434273039</f>
+        <v>27.531148861111657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -632,10 +718,10 @@
         <v>9999</v>
       </c>
       <c r="E4">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>9999</v>
@@ -650,10 +736,31 @@
         <v>9999</v>
       </c>
       <c r="K4">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>9999</v>
+      </c>
+      <c r="N4">
+        <v>9999</v>
+      </c>
+      <c r="O4">
+        <v>9999</v>
+      </c>
+      <c r="P4">
+        <v>9999</v>
+      </c>
+      <c r="Q4">
+        <v>9999</v>
+      </c>
+      <c r="R4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -670,522 +777,830 @@
         <v>11</v>
       </c>
       <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
         <v>678</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>500</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>559</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5">
+        <v>82</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>1730</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O18" si="0">I5/20.885434273039</f>
+        <v>32.462815526667306</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5:P18" si="1">J5/20.885434273039</f>
+        <v>23.940129444444917</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q18" si="2">M5/20.885434273039</f>
+        <v>1.9630906144444833</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:R18" si="3">N5/20.885434273039</f>
+        <v>82.832847877779415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>678</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+      <c r="K6">
+        <v>559</v>
+      </c>
+      <c r="L6">
+        <v>82</v>
+      </c>
+      <c r="M6">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>1730</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="0"/>
         <v>32.462815526667306</v>
       </c>
-      <c r="J5" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="1"/>
         <v>23.940129444444917</v>
       </c>
-      <c r="K5" s="1">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>26.76506471888942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
+        <v>1.9630906144444833</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="3"/>
+        <v>82.832847877779415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="F7">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>44</v>
+      </c>
+      <c r="I7">
         <v>678</v>
       </c>
-      <c r="G6">
+      <c r="J7">
         <v>500</v>
       </c>
-      <c r="H6">
+      <c r="K7">
         <v>559</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L7">
+        <v>82</v>
+      </c>
+      <c r="M7">
+        <v>41</v>
+      </c>
+      <c r="N7">
+        <v>1730</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="0"/>
         <v>32.462815526667306</v>
       </c>
-      <c r="J6" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="1"/>
         <v>23.940129444444917</v>
       </c>
-      <c r="K6" s="1">
+      <c r="Q7" s="1">
         <f t="shared" si="2"/>
-        <v>26.76506471888942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
+        <v>1.9630906144444833</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>82.832847877779415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="F7">
-        <v>678</v>
-      </c>
-      <c r="G7">
+      <c r="F8">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>692</v>
+      </c>
+      <c r="J8">
         <v>500</v>
       </c>
-      <c r="H7">
-        <v>559</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="K8">
+        <v>733</v>
+      </c>
+      <c r="L8">
+        <v>106</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1905</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="0"/>
-        <v>32.462815526667306</v>
-      </c>
-      <c r="J7" s="1">
+        <v>33.13313915111177</v>
+      </c>
+      <c r="P8" s="1">
         <f t="shared" si="1"/>
         <v>23.940129444444917</v>
       </c>
-      <c r="K7" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="2"/>
-        <v>26.76506471888942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
+        <v>4.7880258888889839E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
+        <v>91.211893183335135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>221</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>376</v>
+      </c>
+      <c r="L9">
+        <v>170</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>900</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>10.581537214444653</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7880258888889839</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7880258888889839E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="3"/>
+        <v>43.092233000000853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>905</v>
+      </c>
+      <c r="J10">
+        <v>750</v>
+      </c>
+      <c r="K10">
+        <v>713</v>
+      </c>
+      <c r="L10">
+        <v>79</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2100</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>43.331634294445301</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="1"/>
+        <v>35.910194166667381</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7880258888889839E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="3"/>
+        <v>100.54854366666866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <v>852</v>
+      </c>
+      <c r="J11">
+        <v>625</v>
+      </c>
+      <c r="K11">
+        <v>998</v>
+      </c>
+      <c r="L11">
+        <v>117</v>
+      </c>
+      <c r="M11">
+        <v>49</v>
+      </c>
+      <c r="N11">
+        <v>2336</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>40.793980573334139</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="1"/>
+        <v>29.925161805556147</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3461326855556019</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="3"/>
+        <v>111.84828476444666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>45</v>
+      </c>
+      <c r="I12">
+        <v>852</v>
+      </c>
+      <c r="J12">
+        <v>625</v>
+      </c>
+      <c r="K12">
+        <v>998</v>
+      </c>
+      <c r="L12">
+        <v>117</v>
+      </c>
+      <c r="M12">
+        <v>49</v>
+      </c>
+      <c r="N12">
+        <v>2336</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>40.793980573334139</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>29.925161805556147</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3461326855556019</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="3"/>
+        <v>111.84828476444666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
         <v>29</v>
       </c>
-      <c r="D8">
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>534</v>
+      </c>
+      <c r="J13">
+        <v>575</v>
+      </c>
+      <c r="K13">
+        <v>344</v>
+      </c>
+      <c r="L13">
+        <v>65</v>
+      </c>
+      <c r="M13">
+        <v>114</v>
+      </c>
+      <c r="N13">
+        <v>909</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>25.568058246667174</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
+        <v>27.531148861111657</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4583495133334416</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="3"/>
+        <v>43.523155330000861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>48</v>
+      </c>
+      <c r="I14">
+        <v>1006</v>
+      </c>
+      <c r="J14">
+        <v>750</v>
+      </c>
+      <c r="K14">
+        <v>972</v>
+      </c>
+      <c r="L14">
+        <v>97</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>3125</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>48.167540442223178</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="1"/>
+        <v>35.910194166667381</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="2"/>
+        <v>2.394012944444492</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="3"/>
+        <v>149.62580902778075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>762</v>
+      </c>
+      <c r="J15">
+        <v>600</v>
+      </c>
+      <c r="K15">
+        <v>652</v>
+      </c>
+      <c r="L15">
+        <v>85</v>
+      </c>
+      <c r="M15">
+        <v>23</v>
+      </c>
+      <c r="N15">
+        <v>2122</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>36.484757273334054</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>28.728155333333902</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1012459544444662</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="3"/>
+        <v>101.60190936222423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>903</v>
+      </c>
+      <c r="J16">
+        <v>610</v>
+      </c>
+      <c r="K16">
+        <v>1022</v>
+      </c>
+      <c r="L16">
+        <v>113</v>
+      </c>
+      <c r="M16">
+        <v>61</v>
+      </c>
+      <c r="N16">
+        <v>2230</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>43.235873776667525</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>29.206957922222802</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.92069579222228</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="3"/>
+        <v>106.77297732222434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>379</v>
+      </c>
+      <c r="J17">
+        <v>350</v>
+      </c>
+      <c r="K17">
+        <v>314</v>
+      </c>
+      <c r="L17">
+        <v>82</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>891</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>18.146618118889247</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>16.758090611111442</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7880258888889839E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="3"/>
+        <v>42.661310670000844</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
         <v>30</v>
       </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>692</v>
-      </c>
-      <c r="G8">
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
         <v>500</v>
       </c>
-      <c r="H8">
-        <v>733</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="J18">
+        <v>500</v>
+      </c>
+      <c r="K18">
+        <v>500</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>750</v>
+      </c>
+      <c r="O18" s="1">
         <f t="shared" si="0"/>
-        <v>33.13313915111177</v>
-      </c>
-      <c r="J8" s="1">
+        <v>23.940129444444917</v>
+      </c>
+      <c r="P18" s="1">
         <f t="shared" si="1"/>
         <v>23.940129444444917</v>
       </c>
-      <c r="K8" s="1">
+      <c r="Q18" s="1">
         <f t="shared" si="2"/>
-        <v>35.096229765556252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>221</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>376</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>10.581537214444653</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7880258888889839</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="2"/>
-        <v>18.002977342222579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>905</v>
-      </c>
-      <c r="G10">
-        <v>750</v>
-      </c>
-      <c r="H10">
-        <v>713</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>43.331634294445301</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <v>4.7880258888889839E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="3"/>
         <v>35.910194166667381</v>
       </c>
-      <c r="K10" s="1">
-        <f t="shared" si="2"/>
-        <v>34.138624587778452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>852</v>
-      </c>
-      <c r="G11">
-        <v>625</v>
-      </c>
-      <c r="H11">
-        <v>998</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>40.793980573334139</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="1"/>
-        <v>29.925161805556147</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="2"/>
-        <v>47.784498371112058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>852</v>
-      </c>
-      <c r="G12">
-        <v>625</v>
-      </c>
-      <c r="H12">
-        <v>998</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>40.793980573334139</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>29.925161805556147</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="2"/>
-        <v>47.784498371112058</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>534</v>
-      </c>
-      <c r="G13">
-        <v>575</v>
-      </c>
-      <c r="H13">
-        <v>344</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>25.568058246667174</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>27.531148861111657</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="2"/>
-        <v>16.470809057778105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>1006</v>
-      </c>
-      <c r="G14">
-        <v>750</v>
-      </c>
-      <c r="H14">
-        <v>972</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>48.167540442223178</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>35.910194166667381</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="2"/>
-        <v>46.539611640000921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>762</v>
-      </c>
-      <c r="G15">
-        <v>600</v>
-      </c>
-      <c r="H15">
-        <v>652</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>36.484757273334054</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>28.728155333333902</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="2"/>
-        <v>31.217928795556173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>903</v>
-      </c>
-      <c r="G16">
-        <v>610</v>
-      </c>
-      <c r="H16">
-        <v>1022</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>43.235873776667525</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>29.206957922222802</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="2"/>
-        <v>48.933624584445411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>379</v>
-      </c>
-      <c r="G17">
-        <v>350</v>
-      </c>
-      <c r="H17">
-        <v>314</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>18.146618118889247</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="1"/>
-        <v>16.758090611111442</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="2"/>
-        <v>15.03440129111141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>500</v>
-      </c>
-      <c r="G18">
-        <v>500</v>
-      </c>
-      <c r="H18">
-        <v>500</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="0"/>
-        <v>23.940129444444917</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>23.940129444444917</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="2"/>
-        <v>23.940129444444917</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1193,34 +1608,52 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>500</v>
+        <v>9999</v>
       </c>
       <c r="H19">
-        <v>500</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="0"/>
-        <v>23.940129444444917</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="1"/>
-        <v>23.940129444444917</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="2"/>
-        <v>23.940129444444917</v>
+        <v>9999</v>
+      </c>
+      <c r="I19">
+        <v>9999</v>
+      </c>
+      <c r="J19">
+        <v>9999</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>9999</v>
+      </c>
+      <c r="N19">
+        <v>9999</v>
+      </c>
+      <c r="O19">
+        <v>9999</v>
+      </c>
+      <c r="P19">
+        <v>9999</v>
+      </c>
+      <c r="Q19">
+        <v>9999</v>
+      </c>
+      <c r="R19">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
